--- a/doc/13_内部設計/03_ファイル構成一覧表_ゆとりっぷ 1.0.xlsx
+++ b/doc/13_内部設計/03_ファイル構成一覧表_ゆとりっぷ 1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\研修\6月\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\13_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023BEE5C-A02F-4974-9873-9292F3FA220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E7DBD9-A781-4AA6-9B74-4684935ADE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -318,6 +318,14 @@
   </si>
   <si>
     <t>CheckListViewServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserCreateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserViewServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -385,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,12 +401,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -838,14 +840,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -864,14 +866,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -890,14 +892,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -913,14 +915,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -943,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -959,14 +961,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -982,14 +984,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1005,14 +1007,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>46</v>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1035,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1058,7 +1060,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>23</v>
@@ -1080,10 +1082,10 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1103,10 +1105,10 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1129,7 +1131,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1152,7 +1154,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1175,7 +1177,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1198,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1218,10 +1220,10 @@
         <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1241,10 +1243,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1267,7 +1269,7 @@
         <v>31</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1290,7 +1292,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1313,7 +1315,7 @@
         <v>31</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1336,7 +1338,7 @@
         <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1352,9 +1354,15 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1370,13 +1378,13 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1409,9 +1417,15 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1524,7 +1538,14 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="G37" s="4"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="C2:N25" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
@@ -1535,6 +1556,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1710,18 +1732,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1744,6 +1766,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1758,12 +1788,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>